--- a/数据整理/stocks/A股/上证主板/603429-集友股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603429-集友股份.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,61 +22,97 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>002621</t>
+  </si>
+  <si>
+    <t>002697</t>
+  </si>
+  <si>
+    <t>005620</t>
+  </si>
+  <si>
+    <t>005621</t>
+  </si>
+  <si>
     <t>005126</t>
   </si>
   <si>
-    <t>005620</t>
-  </si>
-  <si>
-    <t>005621</t>
-  </si>
-  <si>
-    <t>002621</t>
-  </si>
-  <si>
-    <t>002697</t>
+    <t>中欧消费主题股票A</t>
+  </si>
+  <si>
+    <t>中欧消费主题股票C</t>
+  </si>
+  <si>
+    <t>中欧品质消费股票A</t>
+  </si>
+  <si>
+    <t>中欧品质消费股票C</t>
   </si>
   <si>
     <t>银河量化稳进混合</t>
   </si>
   <si>
-    <t>中欧品质消费股票A</t>
-  </si>
-  <si>
-    <t>中欧品质消费股票C</t>
-  </si>
-  <si>
-    <t>中欧消费主题股票A</t>
-  </si>
-  <si>
-    <t>中欧消费主题股票C</t>
+    <t>33.14</t>
+  </si>
+  <si>
+    <t>10.83</t>
+  </si>
+  <si>
+    <t>11.92</t>
+  </si>
+  <si>
+    <t>3.03</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>92.07</t>
+  </si>
+  <si>
+    <t>92.60</t>
   </si>
   <si>
     <t>80.88</t>
   </si>
   <si>
-    <t>92.60</t>
-  </si>
-  <si>
-    <t>92.07</t>
+    <t>5.72</t>
+  </si>
+  <si>
+    <t>4.54</t>
   </si>
   <si>
     <t>2.19</t>
   </si>
   <si>
-    <t>4.54</t>
-  </si>
-  <si>
-    <t>5.72</t>
+    <t>1.8956</t>
+  </si>
+  <si>
+    <t>0.6195</t>
+  </si>
+  <si>
+    <t>0.5412</t>
+  </si>
+  <si>
+    <t>0.1376</t>
+  </si>
+  <si>
+    <t>0.0024</t>
   </si>
 </sst>
 </file>
@@ -434,13 +470,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,105 +492,141 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3">
-        <v>8</v>
-      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5">
-        <v>6</v>
-      </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603429-集友股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603429-集友股份.xlsx
@@ -1,150 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>002621</t>
-  </si>
-  <si>
-    <t>002697</t>
-  </si>
-  <si>
-    <t>005620</t>
-  </si>
-  <si>
-    <t>005621</t>
-  </si>
-  <si>
-    <t>005126</t>
-  </si>
-  <si>
-    <t>中欧消费主题股票A</t>
-  </si>
-  <si>
-    <t>中欧消费主题股票C</t>
-  </si>
-  <si>
-    <t>中欧品质消费股票A</t>
-  </si>
-  <si>
-    <t>中欧品质消费股票C</t>
-  </si>
-  <si>
-    <t>银河量化稳进混合</t>
-  </si>
-  <si>
-    <t>33.14</t>
-  </si>
-  <si>
-    <t>10.83</t>
-  </si>
-  <si>
-    <t>11.92</t>
-  </si>
-  <si>
-    <t>3.03</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>92.07</t>
-  </si>
-  <si>
-    <t>92.60</t>
-  </si>
-  <si>
-    <t>80.88</t>
-  </si>
-  <si>
-    <t>5.72</t>
-  </si>
-  <si>
-    <t>4.54</t>
-  </si>
-  <si>
-    <t>2.19</t>
-  </si>
-  <si>
-    <t>1.8956</t>
-  </si>
-  <si>
-    <t>0.6195</t>
-  </si>
-  <si>
-    <t>0.5412</t>
-  </si>
-  <si>
-    <t>0.1376</t>
-  </si>
-  <si>
-    <t>0.0024</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -167,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,167 +446,569 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8956</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6195</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5412</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1376</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>73.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.1033</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6085</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9399</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7536</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2332</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>168105</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>九泰泰富定增主题灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1554</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1303</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603429-集友股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603429-集友股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1011,4 +1012,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1710</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8634</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6400</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5229</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603429-集友股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603429-集友股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1296,4 +1297,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603429-集友股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603429-集友股份.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1305,7 +1306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1316,17 +1317,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1336,14 +1357,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5813</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.41</v>
       </c>
     </row>
     <row r="3">
@@ -1352,14 +1395,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.92</v>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6390</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1368,13 +1433,401 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5298</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4777</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010852</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4383</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010853</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>3.2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603429-集友股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603429-集友股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1742,7 +1743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1753,17 +1754,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1773,14 +1794,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.96</v>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6922</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1789,14 +1832,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.41</v>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3599</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1805,14 +1870,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.92</v>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4371</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1821,13 +1908,303 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2678</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010852</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2673</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010853</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603429-集友股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603429-集友股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2103,7 +2104,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2114,17 +2115,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2134,14 +2155,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.2</v>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7518</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2150,14 +2193,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.96</v>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4526</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2166,14 +2231,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.41</v>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4742</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2182,14 +2269,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.92</v>
+          <t>010852</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2318</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2198,13 +2307,281 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2009</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010853</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603429-集友股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603429-集友股份.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,243 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002621</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧消费主题股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>33.14</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.07</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.8956</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002697</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧消费主题股票C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10.83</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.07</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.6195</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005620</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧品质消费股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>11.92</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.60</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5412</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005621</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧品质消费股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.60</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1376</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
+      <c r="D5" t="n">
+        <v>6.41</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005126</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>银河量化稳进混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>80.88</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -702,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -763,26 +649,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>73.64</t>
+          <t>47.12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>93.16</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.93</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.1033</t>
+          <t>2.7518</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -801,26 +687,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>30.98</t>
+          <t>19.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.85</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.42</t>
+          <t>7.48</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.6085</t>
+          <t>1.4526</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -829,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005620</t>
+          <t>002697</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧品质消费股票A</t>
+          <t>中欧消费主题股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.69</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.61</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.04</t>
+          <t>7.48</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.9399</t>
+          <t>0.4742</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -867,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002697</t>
+          <t>010852</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧消费主题股票C</t>
+          <t>中欧内需成长混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.85</t>
+          <t>91.72</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.42</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.7536</t>
+          <t>0.2318</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -905,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005621</t>
+          <t>005620</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧品质消费股票C</t>
+          <t>中欧品质消费股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.61</t>
+          <t>90.21</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.04</t>
+          <t>5.96</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2332</t>
+          <t>0.2009</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -943,32 +829,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>168105</t>
+          <t>005621</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>九泰泰富定增主题灵活配置混合型</t>
+          <t>中欧品质消费股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.23</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>70.93</t>
+          <t>90.21</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>5.96</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1554</t>
+          <t>0.0727</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -991,26 +877,64 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>93.16</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.93</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1303</t>
+          <t>0.0689</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010853</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1045,7 +969,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1085,22 +1009,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>59.05</t>
+          <t>44.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.44</t>
+          <t>90.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.1710</t>
+          <t>2.6922</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1123,26 +1047,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23.38</t>
+          <t>19.29</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.13</t>
+          <t>88.29</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.97</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.8634</t>
+          <t>1.3599</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1161,26 +1085,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.03</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.13</t>
+          <t>88.29</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.97</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6400</t>
+          <t>0.4371</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1199,26 +1123,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.06</t>
+          <t>90.47</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.47</t>
+          <t>7.16</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5229</t>
+          <t>0.2678</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1227,36 +1151,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005621</t>
+          <t>010852</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧品质消费股票C</t>
+          <t>中欧内需成长混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.06</t>
+          <t>91.46</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.47</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1292</t>
+          <t>0.2673</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1265,35 +1189,111 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>010337</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>中欧悦享生活混合C</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.44</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0811</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010853</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1805,22 +1805,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>44.28</t>
+          <t>59.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.44</t>
+          <t>91.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.08</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.6922</t>
+          <t>3.1710</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1843,26 +1843,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19.29</t>
+          <t>23.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.29</t>
+          <t>90.13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>7.97</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.3599</t>
+          <t>1.8634</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1881,26 +1881,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>8.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.29</t>
+          <t>90.13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>7.97</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4371</t>
+          <t>0.6400</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1919,26 +1919,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.47</t>
+          <t>88.06</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.16</t>
+          <t>7.47</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2678</t>
+          <t>0.5229</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1947,36 +1947,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010852</t>
+          <t>005621</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧内需成长混合型证券投资基金A</t>
+          <t>中欧品质消费股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.46</t>
+          <t>88.06</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>7.47</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2673</t>
+          <t>0.1292</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1985,111 +1985,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005621</t>
+          <t>010337</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧品质消费股票C</t>
+          <t>中欧悦享生活混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.47</t>
+          <t>91.44</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.16</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0795</t>
+          <t>0.0811</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010337</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中欧悦享生活混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.44</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.08</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0657</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010853</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧内需成长混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.46</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0342</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2104,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2125,7 +2049,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2165,26 +2089,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>47.12</t>
+          <t>73.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.16</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.84</t>
+          <t>6.93</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.7518</t>
+          <t>5.1033</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2203,26 +2127,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19.42</t>
+          <t>30.98</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>90.85</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.48</t>
+          <t>8.42</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.4526</t>
+          <t>2.6085</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2231,36 +2155,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002697</t>
+          <t>005620</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧消费主题股票C</t>
+          <t>中欧品质消费股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.34</t>
+          <t>11.69</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>92.61</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.48</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4742</t>
+          <t>0.9399</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2269,36 +2193,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010852</t>
+          <t>002697</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧内需成长混合型证券投资基金A</t>
+          <t>中欧消费主题股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.72</t>
+          <t>90.85</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>8.42</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2318</t>
+          <t>0.7536</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2307,36 +2231,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005620</t>
+          <t>005621</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧品质消费股票A</t>
+          <t>中欧品质消费股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.21</t>
+          <t>92.61</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.96</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2009</t>
+          <t>0.2332</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -2345,32 +2269,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005621</t>
+          <t>168105</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧品质消费股票C</t>
+          <t>九泰泰富定增主题灵活配置混合型</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>7.23</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.21</t>
+          <t>70.93</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.96</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0727</t>
+          <t>0.1554</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -2393,64 +2317,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.16</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.84</t>
+          <t>6.93</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0689</t>
+          <t>0.1303</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010853</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧内需成长混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.72</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0335</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2464,128 +2350,242 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8956</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6195</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5412</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
-      <c r="D2" t="n">
-        <v>5.29</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1376</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
-      <c r="D3" t="n">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.96</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.41</v>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>9.92</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.2</v>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603429-集友股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603429-集友股份.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>5.29</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>5.2</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>5.96</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>6.41</v>
+        <v>5.96</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>9.92</v>
+        <v>6.41</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.2</v>
       </c>
     </row>
@@ -588,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,32 +656,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010336</t>
+          <t>002621</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧悦享生活混合A</t>
+          <t>中欧消费主题股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>47.12</t>
+          <t>10.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.16</t>
+          <t>88.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.84</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.7518</t>
+          <t>0.5900</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -677,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002621</t>
+          <t>002697</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧消费主题股票A</t>
+          <t>中欧消费主题股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19.42</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>88.44</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.48</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.4526</t>
+          <t>0.2975</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -715,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002697</t>
+          <t>010852</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧消费主题股票C</t>
+          <t>中欧内需成长混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.34</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>90.11</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.48</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4742</t>
+          <t>0.1528</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -753,32 +770,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010852</t>
+          <t>005620</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧内需成长混合型证券投资基金A</t>
+          <t>中欧品质消费股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.72</t>
+          <t>91.58</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2318</t>
+          <t>0.0763</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -791,36 +808,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005620</t>
+          <t>005621</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧品质消费股票A</t>
+          <t>中欧品质消费股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.21</t>
+          <t>91.58</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.96</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2009</t>
+          <t>0.0457</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -829,112 +846,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005621</t>
+          <t>010853</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧品质消费股票C</t>
+          <t>中欧内需成长混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.21</t>
+          <t>90.11</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.96</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0727</t>
+          <t>0.0223</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010337</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中欧悦享生活混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.16</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0689</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
         <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010853</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧内需成长混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.72</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0335</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1009,26 +950,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>44.28</t>
+          <t>47.12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.44</t>
+          <t>93.16</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.08</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.6922</t>
+          <t>2.7518</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1047,26 +988,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19.29</t>
+          <t>19.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.29</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>7.48</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.3599</t>
+          <t>1.4526</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1085,26 +1026,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.29</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>7.48</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4371</t>
+          <t>0.4742</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1113,36 +1054,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005620</t>
+          <t>010852</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧品质消费股票A</t>
+          <t>中欧内需成长混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.47</t>
+          <t>91.72</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.16</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2678</t>
+          <t>0.2318</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1151,36 +1092,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010852</t>
+          <t>005620</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧内需成长混合型证券投资基金A</t>
+          <t>中欧品质消费股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.46</t>
+          <t>90.21</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>5.96</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2673</t>
+          <t>0.2009</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1199,26 +1140,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.47</t>
+          <t>90.21</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.16</t>
+          <t>5.96</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0795</t>
+          <t>0.0727</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1237,26 +1178,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.44</t>
+          <t>93.16</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.08</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0657</t>
+          <t>0.0689</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1275,26 +1216,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.46</t>
+          <t>91.72</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0342</t>
+          <t>0.0335</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1303,6 +1244,366 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6922</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3599</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4371</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2678</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010852</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2673</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010853</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧内需成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1738,7 +2039,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2022,7 +2323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2344,7 +2645,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
